--- a/final-outputs/npv_timeseries.xlsx
+++ b/final-outputs/npv_timeseries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\capital-cost-recovery\final-outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD0AD32-D35B-4944-B4E4-4A069321949F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDD8155-5A12-41D5-ADDE-653BC0701AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,14 +86,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1016,91 +1029,91 @@
             <c:numRef>
               <c:f>npv_weighted_timeseries_new!$B$2:$B$29</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0.65248288295765899</c:v>
+                  <c:v>0.65366602304814703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64708656250067398</c:v>
+                  <c:v>0.64826933048396895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64856086736366902</c:v>
+                  <c:v>0.64976467348098998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64806987325480803</c:v>
+                  <c:v>0.64929368035847101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65159511069499099</c:v>
+                  <c:v>0.65282660176891705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.640813593342069</c:v>
+                  <c:v>0.64207018151779904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64326689321222896</c:v>
+                  <c:v>0.64760153190953496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64356376808133098</c:v>
+                  <c:v>0.64807497482917997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.64925528475624295</c:v>
+                  <c:v>0.65379933244073796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65003539157970602</c:v>
+                  <c:v>0.65459803243505899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64641706895384698</c:v>
+                  <c:v>0.65098835772419905</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64954592634194797</c:v>
+                  <c:v>0.65417513514212999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.63621946713129995</c:v>
+                  <c:v>0.64086716952821199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.63393507547422101</c:v>
+                  <c:v>0.63858639545318296</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.636674489838155</c:v>
+                  <c:v>0.64135828350212198</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.638536634009918</c:v>
+                  <c:v>0.64313546560645896</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.64010905349081604</c:v>
+                  <c:v>0.64467469296025404</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.64273558648149998</c:v>
+                  <c:v>0.64733210452808698</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.656305673892146</c:v>
+                  <c:v>0.65855041681686499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.663362685918371</c:v>
+                  <c:v>0.66632961742971197</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.67281066874311402</c:v>
+                  <c:v>0.67575844205763802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.68742643277784499</c:v>
+                  <c:v>0.69035254304303695</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.68739451975454202</c:v>
+                  <c:v>0.69033975887168797</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.66899842443177304</c:v>
+                  <c:v>0.67194846369599803</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.66785746747008001</c:v>
+                  <c:v>0.67068523664304203</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.66026174580038899</c:v>
+                  <c:v>0.66309840552667398</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.65568340555007498</c:v>
+                  <c:v>0.65852924491599296</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65132312307664197</c:v>
+                  <c:v>0.65417777104061103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1235,91 +1248,91 @@
             <c:numRef>
               <c:f>npv_weighted_timeseries_new!$C$2:$C$29</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0.70407125692310601</c:v>
+                  <c:v>0.70520971071790595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70130587857863502</c:v>
+                  <c:v>0.70244433237343495</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69537792306539004</c:v>
+                  <c:v>0.69651637686018997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69337195233294202</c:v>
+                  <c:v>0.69451040612774195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69419023081715003</c:v>
+                  <c:v>0.69532868461194997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68734546575192401</c:v>
+                  <c:v>0.68848391954672405</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68718606752863098</c:v>
+                  <c:v>0.69107320818678497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.684583900259499</c:v>
+                  <c:v>0.68847104091765299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68389424636023499</c:v>
+                  <c:v>0.68778138701838898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.688372658665801</c:v>
+                  <c:v>0.69225979932395498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.68609334497336405</c:v>
+                  <c:v>0.68998048563151904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.68065854514227198</c:v>
+                  <c:v>0.68454568580042596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67623870242778805</c:v>
+                  <c:v>0.68012584308594204</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.66917697836215595</c:v>
+                  <c:v>0.67285953266988097</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.66826818670912702</c:v>
+                  <c:v>0.67195074101685204</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66918227763330795</c:v>
+                  <c:v>0.67286483194103297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.67041110389477598</c:v>
+                  <c:v>0.6740936582025</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.668451028844954</c:v>
+                  <c:v>0.67213358315267901</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.67748416782975496</c:v>
+                  <c:v>0.67928735019229203</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.68050619664698397</c:v>
+                  <c:v>0.68289089275284398</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.69990446803995698</c:v>
+                  <c:v>0.70228916414581799</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.70715291937916502</c:v>
+                  <c:v>0.70953761548502603</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.70715291937916502</c:v>
+                  <c:v>0.70953761548502603</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.68680077783164495</c:v>
+                  <c:v>0.68918547393750595</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.68773821638784505</c:v>
+                  <c:v>0.690006841873405</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.68615128428463401</c:v>
+                  <c:v>0.68841990977019396</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.68458016924629905</c:v>
+                  <c:v>0.686848794731859</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.68425542247279403</c:v>
+                  <c:v>0.68652404795835398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,7 +1428,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3412,10 +3425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA12FEFA-CCE2-412B-B393-71E81E6CC7C1}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3438,11 +3451,11 @@
       <c r="A2">
         <v>2000</v>
       </c>
-      <c r="B2">
-        <v>0.65248288295765899</v>
-      </c>
-      <c r="C2">
-        <v>0.70407125692310601</v>
+      <c r="B2" s="1">
+        <v>0.65366602304814703</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.70520971071790595</v>
       </c>
       <c r="D2">
         <v>36</v>
@@ -3452,11 +3465,11 @@
       <c r="A3">
         <v>2001</v>
       </c>
-      <c r="B3">
-        <v>0.64708656250067398</v>
-      </c>
-      <c r="C3">
-        <v>0.70130587857863502</v>
+      <c r="B3" s="1">
+        <v>0.64826933048396895</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.70244433237343495</v>
       </c>
       <c r="D3">
         <v>36</v>
@@ -3469,11 +3482,11 @@
       <c r="A4">
         <v>2002</v>
       </c>
-      <c r="B4">
-        <v>0.64856086736366902</v>
-      </c>
-      <c r="C4">
-        <v>0.69537792306539004</v>
+      <c r="B4" s="1">
+        <v>0.64976467348098998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.69651637686018997</v>
       </c>
       <c r="D4">
         <v>36</v>
@@ -3486,11 +3499,11 @@
       <c r="A5">
         <v>2003</v>
       </c>
-      <c r="B5">
-        <v>0.64806987325480803</v>
-      </c>
-      <c r="C5">
-        <v>0.69337195233294202</v>
+      <c r="B5" s="1">
+        <v>0.64929368035847101</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.69451040612774195</v>
       </c>
       <c r="D5">
         <v>36</v>
@@ -3500,11 +3513,11 @@
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6">
-        <v>0.65159511069499099</v>
-      </c>
-      <c r="C6">
-        <v>0.69419023081715003</v>
+      <c r="B6" s="1">
+        <v>0.65282660176891705</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.69532868461194997</v>
       </c>
       <c r="D6">
         <v>36</v>
@@ -3514,11 +3527,11 @@
       <c r="A7">
         <v>2005</v>
       </c>
-      <c r="B7">
-        <v>0.640813593342069</v>
-      </c>
-      <c r="C7">
-        <v>0.68734546575192401</v>
+      <c r="B7" s="1">
+        <v>0.64207018151779904</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.68848391954672405</v>
       </c>
       <c r="D7">
         <v>36</v>
@@ -3528,11 +3541,11 @@
       <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8">
-        <v>0.64326689321222896</v>
-      </c>
-      <c r="C8">
-        <v>0.68718606752863098</v>
+      <c r="B8" s="1">
+        <v>0.64760153190953496</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.69107320818678497</v>
       </c>
       <c r="D8">
         <v>36</v>
@@ -3542,11 +3555,11 @@
       <c r="A9">
         <v>2007</v>
       </c>
-      <c r="B9">
-        <v>0.64356376808133098</v>
-      </c>
-      <c r="C9">
-        <v>0.684583900259499</v>
+      <c r="B9" s="1">
+        <v>0.64807497482917997</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.68847104091765299</v>
       </c>
       <c r="D9">
         <v>36</v>
@@ -3556,11 +3569,11 @@
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10">
-        <v>0.64925528475624295</v>
-      </c>
-      <c r="C10">
-        <v>0.68389424636023499</v>
+      <c r="B10" s="1">
+        <v>0.65379933244073796</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.68778138701838898</v>
       </c>
       <c r="D10">
         <v>36</v>
@@ -3570,11 +3583,11 @@
       <c r="A11">
         <v>2009</v>
       </c>
-      <c r="B11">
-        <v>0.65003539157970602</v>
-      </c>
-      <c r="C11">
-        <v>0.688372658665801</v>
+      <c r="B11" s="1">
+        <v>0.65459803243505899</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.69225979932395498</v>
       </c>
       <c r="D11">
         <v>36</v>
@@ -3584,11 +3597,11 @@
       <c r="A12">
         <v>2010</v>
       </c>
-      <c r="B12">
-        <v>0.64641706895384698</v>
-      </c>
-      <c r="C12">
-        <v>0.68609334497336405</v>
+      <c r="B12" s="1">
+        <v>0.65098835772419905</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.68998048563151904</v>
       </c>
       <c r="D12">
         <v>36</v>
@@ -3598,11 +3611,11 @@
       <c r="A13">
         <v>2011</v>
       </c>
-      <c r="B13">
-        <v>0.64954592634194797</v>
-      </c>
-      <c r="C13">
-        <v>0.68065854514227198</v>
+      <c r="B13" s="1">
+        <v>0.65417513514212999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.68454568580042596</v>
       </c>
       <c r="D13">
         <v>36</v>
@@ -3612,11 +3625,11 @@
       <c r="A14">
         <v>2012</v>
       </c>
-      <c r="B14">
-        <v>0.63621946713129995</v>
-      </c>
-      <c r="C14">
-        <v>0.67623870242778805</v>
+      <c r="B14" s="1">
+        <v>0.64086716952821199</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.68012584308594204</v>
       </c>
       <c r="D14">
         <v>36</v>
@@ -3626,11 +3639,11 @@
       <c r="A15">
         <v>2013</v>
       </c>
-      <c r="B15">
-        <v>0.63393507547422101</v>
-      </c>
-      <c r="C15">
-        <v>0.66917697836215595</v>
+      <c r="B15" s="1">
+        <v>0.63858639545318296</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.67285953266988097</v>
       </c>
       <c r="D15">
         <v>38</v>
@@ -3640,11 +3653,11 @@
       <c r="A16">
         <v>2014</v>
       </c>
-      <c r="B16">
-        <v>0.636674489838155</v>
-      </c>
-      <c r="C16">
-        <v>0.66826818670912702</v>
+      <c r="B16" s="1">
+        <v>0.64135828350212198</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.67195074101685204</v>
       </c>
       <c r="D16">
         <v>38</v>
@@ -3654,11 +3667,11 @@
       <c r="A17">
         <v>2015</v>
       </c>
-      <c r="B17">
-        <v>0.638536634009918</v>
-      </c>
-      <c r="C17">
-        <v>0.66918227763330795</v>
+      <c r="B17" s="1">
+        <v>0.64313546560645896</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.67286483194103297</v>
       </c>
       <c r="D17">
         <v>38</v>
@@ -3668,11 +3681,11 @@
       <c r="A18">
         <v>2016</v>
       </c>
-      <c r="B18">
-        <v>0.64010905349081604</v>
-      </c>
-      <c r="C18">
-        <v>0.67041110389477598</v>
+      <c r="B18" s="1">
+        <v>0.64467469296025404</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.6740936582025</v>
       </c>
       <c r="D18">
         <v>38</v>
@@ -3682,11 +3695,11 @@
       <c r="A19">
         <v>2017</v>
       </c>
-      <c r="B19">
-        <v>0.64273558648149998</v>
-      </c>
-      <c r="C19">
-        <v>0.668451028844954</v>
+      <c r="B19" s="1">
+        <v>0.64733210452808698</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.67213358315267901</v>
       </c>
       <c r="D19">
         <v>38</v>
@@ -3696,11 +3709,11 @@
       <c r="A20">
         <v>2018</v>
       </c>
-      <c r="B20">
-        <v>0.656305673892146</v>
-      </c>
-      <c r="C20">
-        <v>0.67748416782975496</v>
+      <c r="B20" s="1">
+        <v>0.65855041681686499</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.67928735019229203</v>
       </c>
       <c r="D20">
         <v>38</v>
@@ -3710,11 +3723,11 @@
       <c r="A21">
         <v>2019</v>
       </c>
-      <c r="B21">
-        <v>0.663362685918371</v>
-      </c>
-      <c r="C21">
-        <v>0.68050619664698397</v>
+      <c r="B21" s="1">
+        <v>0.66632961742971197</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.68289089275284398</v>
       </c>
       <c r="D21">
         <v>38</v>
@@ -3724,11 +3737,11 @@
       <c r="A22">
         <v>2020</v>
       </c>
-      <c r="B22">
-        <v>0.67281066874311402</v>
-      </c>
-      <c r="C22">
-        <v>0.69990446803995698</v>
+      <c r="B22" s="1">
+        <v>0.67575844205763802</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.70228916414581799</v>
       </c>
       <c r="D22">
         <v>38</v>
@@ -3738,11 +3751,11 @@
       <c r="A23">
         <v>2021</v>
       </c>
-      <c r="B23">
-        <v>0.68742643277784499</v>
-      </c>
-      <c r="C23">
-        <v>0.70715291937916502</v>
+      <c r="B23" s="1">
+        <v>0.69035254304303695</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.70953761548502603</v>
       </c>
       <c r="D23">
         <v>38</v>
@@ -3752,11 +3765,11 @@
       <c r="A24">
         <v>2022</v>
       </c>
-      <c r="B24">
-        <v>0.68739451975454202</v>
-      </c>
-      <c r="C24">
-        <v>0.70715291937916502</v>
+      <c r="B24" s="1">
+        <v>0.69033975887168797</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.70953761548502603</v>
       </c>
       <c r="D24">
         <v>38</v>
@@ -3766,11 +3779,11 @@
       <c r="A25">
         <v>2023</v>
       </c>
-      <c r="B25">
-        <v>0.66899842443177304</v>
-      </c>
-      <c r="C25">
-        <v>0.68680077783164495</v>
+      <c r="B25" s="1">
+        <v>0.67194846369599803</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.68918547393750595</v>
       </c>
       <c r="D25">
         <v>38</v>
@@ -3780,11 +3793,11 @@
       <c r="A26">
         <v>2024</v>
       </c>
-      <c r="B26">
-        <v>0.66785746747008001</v>
-      </c>
-      <c r="C26">
-        <v>0.68773821638784505</v>
+      <c r="B26" s="1">
+        <v>0.67068523664304203</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.690006841873405</v>
       </c>
       <c r="D26">
         <v>38</v>
@@ -3794,11 +3807,11 @@
       <c r="A27">
         <v>2025</v>
       </c>
-      <c r="B27">
-        <v>0.66026174580038899</v>
-      </c>
-      <c r="C27">
-        <v>0.68615128428463401</v>
+      <c r="B27" s="1">
+        <v>0.66309840552667398</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.68841990977019396</v>
       </c>
       <c r="D27">
         <v>38</v>
@@ -3808,11 +3821,11 @@
       <c r="A28">
         <v>2026</v>
       </c>
-      <c r="B28">
-        <v>0.65568340555007498</v>
-      </c>
-      <c r="C28">
-        <v>0.68458016924629905</v>
+      <c r="B28" s="1">
+        <v>0.65852924491599296</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.686848794731859</v>
       </c>
       <c r="D28">
         <v>38</v>
@@ -3822,14 +3835,25 @@
       <c r="A29">
         <v>2027</v>
       </c>
-      <c r="B29">
-        <v>0.65132312307664197</v>
-      </c>
-      <c r="C29">
-        <v>0.68425542247279403</v>
+      <c r="B29" s="1">
+        <v>0.65417777104061103</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.68652404795835398</v>
       </c>
       <c r="D29">
         <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2028</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.65323333807587303</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.685816746028721</v>
       </c>
     </row>
   </sheetData>

--- a/final-outputs/npv_timeseries.xlsx
+++ b/final-outputs/npv_timeseries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\capital-cost-recovery\final-outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDD8155-5A12-41D5-ADDE-653BC0701AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028A6CD1-AC07-43D9-B453-72719940528E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>year</t>
   </si>
@@ -39,20 +39,11 @@
   <si>
     <t>OECD Average Weighted by GDP</t>
   </si>
-  <si>
-    <t>Note 1: The UK made full expensing for machinery and equipment permanent in 2023</t>
-  </si>
-  <si>
-    <t>Note 2: Germany re-enacted declining balance depreciation for 2024</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +83,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,62 +836,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100"/>
-              <a:t>Capital Allowances are Set to Dwindle in the Coming Years</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -934,10 +870,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>npv_weighted_timeseries_new!$A$2:$A$29</c:f>
+              <c:f>npv_weighted_timeseries_new!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1021,16 +957,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>npv_weighted_timeseries_new!$B$2:$B$29</c:f>
+              <c:f>npv_weighted_timeseries_new!$B$2:$B$30</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.65366602304814703</c:v>
                 </c:pt>
@@ -1086,7 +1025,7 @@
                   <c:v>0.64733210452808698</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.65855041681686499</c:v>
+                  <c:v>0.65804860877626103</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.66632961742971197</c:v>
@@ -1114,6 +1053,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.65417777104061103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65323333807587303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1153,10 +1095,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>npv_weighted_timeseries_new!$A$2:$A$29</c:f>
+              <c:f>npv_weighted_timeseries_new!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1240,16 +1182,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>npv_weighted_timeseries_new!$C$2:$C$29</c:f>
+              <c:f>npv_weighted_timeseries_new!$C$2:$C$30</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.70520971071790595</c:v>
                 </c:pt>
@@ -1305,7 +1250,7 @@
                   <c:v>0.67213358315267901</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.67928735019229203</c:v>
+                  <c:v>0.67888425218127602</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.68289089275284398</c:v>
@@ -1333,6 +1278,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68652404795835398</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.685816746028721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,7 +1376,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3425,15 +3373,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA12FEFA-CCE2-412B-B393-71E81E6CC7C1}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3447,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -3461,7 +3409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -3474,11 +3422,8 @@
       <c r="D3">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -3491,11 +3436,8 @@
       <c r="D4">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -3509,7 +3451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -3523,7 +3465,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -3537,7 +3479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -3551,7 +3493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -3565,7 +3507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -3579,7 +3521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -3593,7 +3535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -3607,7 +3549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -3621,7 +3563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -3635,7 +3577,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -3649,7 +3591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -3710,10 +3652,10 @@
         <v>2018</v>
       </c>
       <c r="B20" s="1">
-        <v>0.65855041681686499</v>
+        <v>0.65804860877626103</v>
       </c>
       <c r="C20" s="1">
-        <v>0.67928735019229203</v>
+        <v>0.67888425218127602</v>
       </c>
       <c r="D20">
         <v>38</v>
@@ -3854,6 +3796,9 @@
       </c>
       <c r="C30" s="1">
         <v>0.685816746028721</v>
+      </c>
+      <c r="D30">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
